--- a/RVLConcatStrings/Main.rvl.xlsx
+++ b/RVLConcatStrings/Main.rvl.xlsx
@@ -159,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="168">
+  <borders count="170">
     <border>
       <left/>
       <right/>
@@ -334,11 +334,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -507,6 +509,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -556,271 +560,247 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="168"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="169"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34" t="s">
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B10" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F11" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G11" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="72"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="81" t="s">
+      <c r="H11" s="72"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="80"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B13" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="88"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90" t="s">
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="89"/>
+      <c r="B14" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="93" t="s">
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="94" t="s">
+      <c r="F14" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="95" t="s">
+      <c r="G14" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="96"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98" t="s">
+      <c r="H14" s="96"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="97"/>
+      <c r="B15" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101" t="s">
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="F15" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="103" t="s">
+      <c r="G15" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="104"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="105"/>
-      <c r="B14" s="106" t="s">
+      <c r="H15" s="104"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="105"/>
+      <c r="B16" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109" t="s">
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="F16" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="111" t="s">
+      <c r="G16" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="112"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="113"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="121"/>
-      <c r="B16" s="122" t="s">
+      <c r="H16" s="112"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="113"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="120"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="121"/>
+      <c r="B18" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C18" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="D18" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="125" t="s">
+      <c r="E18" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="126" t="s">
+      <c r="F18" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="127" t="s">
+      <c r="G18" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="128"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="163"/>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="164"/>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
+      <c r="H18" s="128"/>
     </row>
     <row r="19">
-      <c r="A19" s="165"/>
+      <c r="A19" s="163"/>
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -831,11 +811,11 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="166"/>
+      <c r="A20" s="164"/>
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -846,11 +826,11 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="167"/>
+      <c r="A21" s="165"/>
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -861,48 +841,78 @@
         <v>39</v>
       </c>
       <c r="G21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="166"/>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="129"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="136"/>
-    </row>
     <row r="23">
-      <c r="A23" s="137"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="144"/>
+      <c r="A23" s="167"/>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="145"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="152"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="136"/>
     </row>
     <row r="25">
-      <c r="A25" s="153"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="160"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="144"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="145"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="152"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="153"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="160"/>
     </row>
   </sheetData>
 </worksheet>
